--- a/Results UserStudy/time.xlsx
+++ b/Results UserStudy/time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliankarch/Library/Mobile Documents/com~apple~CloudDocs/Desktop/Uni/Master/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliankarch/git/VR-SmartHomePlanner-App/Results UserStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD50E667-A4DF-6E4B-9F09-A36068ED4A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBEF58C-8894-304E-AB11-EFC0E29AB9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5880" yWindow="760" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Tabelle 1</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>Participants</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -1404,7 +1416,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1732,7 +1744,9 @@
       <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
+      <c r="A24" s="15" t="s">
+        <v>4</v>
+      </c>
       <c r="B24" s="10">
         <v>1.381944444444444E-2</v>
       </c>
@@ -1744,7 +1758,9 @@
       <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
+      <c r="A25" s="15" t="s">
+        <v>5</v>
+      </c>
       <c r="B25" s="10">
         <v>1.5808080808080809E-2</v>
       </c>
@@ -1756,7 +1772,9 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
+      <c r="A26" s="15" t="s">
+        <v>6</v>
+      </c>
       <c r="B26" s="10">
         <v>9.525462962962963E-3</v>
       </c>
@@ -1768,7 +1786,9 @@
       <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
+      <c r="A27" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="B27" s="10">
         <v>2.6192129629629631E-2</v>
       </c>
